--- a/Data/t13.2.xlsx
+++ b/Data/t13.2.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">

--- a/Data/t13.2.xlsx
+++ b/Data/t13.2.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -365,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Variável</t>
+          <t>Ano</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trimestre</t>
+          <t>Atividade</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Pessoas</t>
+          <t>Valor</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -392,19 +468,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>01/07/2013</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>154</v>
-      </c>
-      <c r="E2">
-        <v>16.8</v>
+      <c r="D2" t="n">
+        <v>153</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16.6</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +491,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Indústria geral</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>01/07/2013</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
+      <c r="D3" t="n">
+        <v>109</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.8</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +514,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Construção</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>01/07/2013</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>78</v>
-      </c>
-      <c r="E4">
-        <v>8.6</v>
+      <c r="D4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +537,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>01/07/2013</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>173</v>
-      </c>
-      <c r="E5">
-        <v>19</v>
+      <c r="D5" t="n">
+        <v>175</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.9</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +560,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>01/07/2013</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>4.4</v>
+      <c r="D6" t="n">
+        <v>41</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="7">
@@ -507,19 +583,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Alojamento e alimentação</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>01/07/2013</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>34</v>
-      </c>
-      <c r="E7">
-        <v>3.8</v>
+      <c r="D7" t="n">
+        <v>41</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="8">
@@ -530,19 +606,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>01/07/2013</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>73</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
+      <c r="D8" t="n">
+        <v>69</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="9">
@@ -553,19 +629,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>01/07/2013</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>165</v>
-      </c>
-      <c r="E9">
-        <v>18.1</v>
+      <c r="D9" t="n">
+        <v>149</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16.1</v>
       </c>
     </row>
     <row r="10">
@@ -576,19 +652,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>160</v>
-      </c>
-      <c r="E10">
-        <v>17.1</v>
+      <c r="D10" t="n">
+        <v>152</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16.6</v>
       </c>
     </row>
     <row r="11">
@@ -599,19 +675,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Indústria geral</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>96</v>
-      </c>
-      <c r="E11">
-        <v>10.3</v>
+      <c r="D11" t="n">
+        <v>97</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.6</v>
       </c>
     </row>
     <row r="12">
@@ -622,19 +698,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Construção</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>70</v>
-      </c>
-      <c r="E12">
-        <v>7.5</v>
+      <c r="D12" t="n">
+        <v>79</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -645,19 +721,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>193</v>
-      </c>
-      <c r="E13">
-        <v>20.6</v>
+      <c r="D13" t="n">
+        <v>185</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20.3</v>
       </c>
     </row>
     <row r="14">
@@ -668,19 +744,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>43</v>
-      </c>
-      <c r="E14">
-        <v>4.5</v>
+      <c r="D14" t="n">
+        <v>44</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="15">
@@ -691,19 +767,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Alojamento e alimentação</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>41</v>
-      </c>
-      <c r="E15">
-        <v>4.4</v>
+      <c r="D15" t="n">
+        <v>33</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="16">
@@ -714,19 +790,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>79</v>
-      </c>
-      <c r="E16">
-        <v>8.4</v>
+      <c r="D16" t="n">
+        <v>71</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="17">
@@ -737,19 +813,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>164</v>
-      </c>
-      <c r="E17">
-        <v>17.5</v>
+      <c r="D17" t="n">
+        <v>156</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17.1</v>
       </c>
     </row>
     <row r="18">
@@ -760,19 +836,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>129</v>
-      </c>
-      <c r="E18">
-        <v>14.8</v>
+      <c r="D18" t="n">
+        <v>158</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16.8</v>
       </c>
     </row>
     <row r="19">
@@ -783,19 +859,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Indústria geral</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>77</v>
-      </c>
-      <c r="E19">
-        <v>8.800000000000001</v>
+      <c r="D19" t="n">
+        <v>99</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="20">
@@ -806,19 +882,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Construção</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>67</v>
-      </c>
-      <c r="E20">
-        <v>7.7</v>
+      <c r="D20" t="n">
+        <v>75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="21">
@@ -829,19 +905,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>187</v>
-      </c>
-      <c r="E21">
-        <v>21.4</v>
+      <c r="D21" t="n">
+        <v>190</v>
+      </c>
+      <c r="E21" t="n">
+        <v>20.2</v>
       </c>
     </row>
     <row r="22">
@@ -852,19 +928,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>38</v>
-      </c>
-      <c r="E22">
-        <v>4.4</v>
+      <c r="D22" t="n">
+        <v>45</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="23">
@@ -875,19 +951,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Alojamento e alimentação</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>45</v>
-      </c>
-      <c r="E23">
-        <v>5.2</v>
+      <c r="D23" t="n">
+        <v>41</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="24">
@@ -898,19 +974,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>73</v>
-      </c>
-      <c r="E24">
-        <v>8.300000000000001</v>
+      <c r="D24" t="n">
+        <v>83</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -921,19 +997,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>154</v>
-      </c>
-      <c r="E25">
-        <v>17.7</v>
+      <c r="D25" t="n">
+        <v>163</v>
+      </c>
+      <c r="E25" t="n">
+        <v>17.4</v>
       </c>
     </row>
     <row r="26">
@@ -944,19 +1020,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>123</v>
-      </c>
-      <c r="E26">
-        <v>13.1</v>
+      <c r="D26" t="n">
+        <v>163</v>
+      </c>
+      <c r="E26" t="n">
+        <v>17.9</v>
       </c>
     </row>
     <row r="27">
@@ -967,19 +1043,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Indústria geral</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>86</v>
-      </c>
-      <c r="E27">
-        <v>9.199999999999999</v>
+      <c r="D27" t="n">
+        <v>88</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -990,19 +1066,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Construção</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>67</v>
-      </c>
-      <c r="E28">
-        <v>7.2</v>
+      <c r="D28" t="n">
+        <v>81</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.9</v>
       </c>
     </row>
     <row r="29">
@@ -1013,19 +1089,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>178</v>
-      </c>
-      <c r="E29">
-        <v>19</v>
+      <c r="D29" t="n">
+        <v>187</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20.6</v>
       </c>
     </row>
     <row r="30">
@@ -1036,19 +1112,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>51</v>
-      </c>
-      <c r="E30">
-        <v>5.5</v>
+      <c r="D30" t="n">
+        <v>41</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="31">
@@ -1059,19 +1135,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Alojamento e alimentação</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>57</v>
-      </c>
-      <c r="E31">
-        <v>6.1</v>
+      <c r="D31" t="n">
+        <v>37</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="32">
@@ -1082,19 +1158,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>92</v>
-      </c>
-      <c r="E32">
-        <v>9.800000000000001</v>
+      <c r="D32" t="n">
+        <v>63</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6.9</v>
       </c>
     </row>
     <row r="33">
@@ -1105,19 +1181,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>160</v>
-      </c>
-      <c r="E33">
-        <v>17.1</v>
+      <c r="D33" t="n">
+        <v>156</v>
+      </c>
+      <c r="E33" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="34">
@@ -1128,19 +1204,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>134</v>
-      </c>
-      <c r="E34">
-        <v>14.6</v>
+      <c r="D34" t="n">
+        <v>146</v>
+      </c>
+      <c r="E34" t="n">
+        <v>16.8</v>
       </c>
     </row>
     <row r="35">
@@ -1151,19 +1227,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Indústria geral</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>71</v>
-      </c>
-      <c r="E35">
-        <v>7.8</v>
+      <c r="D35" t="n">
+        <v>75</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8.6</v>
       </c>
     </row>
     <row r="36">
@@ -1174,19 +1250,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>Construção</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>72</v>
-      </c>
-      <c r="E36">
-        <v>7.9</v>
+      <c r="D36" t="n">
+        <v>69</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1197,18 +1273,18 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>195</v>
-      </c>
-      <c r="E37">
+      <c r="D37" t="n">
+        <v>185</v>
+      </c>
+      <c r="E37" t="n">
         <v>21.3</v>
       </c>
     </row>
@@ -1220,19 +1296,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>35</v>
-      </c>
-      <c r="E38">
-        <v>3.9</v>
+      <c r="D38" t="n">
+        <v>39</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="39">
@@ -1243,19 +1319,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>Alojamento e alimentação</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>50</v>
-      </c>
-      <c r="E39">
-        <v>5.4</v>
+      <c r="D39" t="n">
+        <v>46</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="40">
@@ -1266,19 +1342,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>82</v>
-      </c>
-      <c r="E40">
-        <v>9</v>
+      <c r="D40" t="n">
+        <v>66</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7.6</v>
       </c>
     </row>
     <row r="41">
@@ -1289,19 +1365,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>174</v>
-      </c>
-      <c r="E41">
-        <v>19.1</v>
+      <c r="D41" t="n">
+        <v>155</v>
+      </c>
+      <c r="E41" t="n">
+        <v>17.8</v>
       </c>
     </row>
     <row r="42">
@@ -1312,19 +1388,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>132</v>
-      </c>
-      <c r="E42">
-        <v>13.6</v>
+      <c r="D42" t="n">
+        <v>138</v>
+      </c>
+      <c r="E42" t="n">
+        <v>15.3</v>
       </c>
     </row>
     <row r="43">
@@ -1335,19 +1411,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>Indústria geral</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>75</v>
-      </c>
-      <c r="E43">
-        <v>7.7</v>
+      <c r="D43" t="n">
+        <v>80</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8.9</v>
       </c>
     </row>
     <row r="44">
@@ -1358,19 +1434,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Construção</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>71</v>
-      </c>
-      <c r="E44">
-        <v>7.3</v>
+      <c r="D44" t="n">
+        <v>70</v>
+      </c>
+      <c r="E44" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="45">
@@ -1381,19 +1457,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>192</v>
-      </c>
-      <c r="E45">
-        <v>19.7</v>
+      <c r="D45" t="n">
+        <v>193</v>
+      </c>
+      <c r="E45" t="n">
+        <v>21.3</v>
       </c>
     </row>
     <row r="46">
@@ -1404,19 +1480,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>39</v>
       </c>
-      <c r="E46">
-        <v>4</v>
+      <c r="E46" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="47">
@@ -1427,19 +1503,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>Alojamento e alimentação</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>55</v>
-      </c>
-      <c r="E47">
-        <v>5.7</v>
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -1450,19 +1526,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>91</v>
-      </c>
-      <c r="E48">
-        <v>9.300000000000001</v>
+      <c r="D48" t="n">
+        <v>77</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8.6</v>
       </c>
     </row>
     <row r="49">
@@ -1473,22 +1549,942 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D49">
+      <c r="D49" t="n">
+        <v>153</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>119</v>
+      </c>
+      <c r="E50" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>88</v>
+      </c>
+      <c r="E51" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>65</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>190</v>
+      </c>
+      <c r="E53" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>48</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>45</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>82</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>158</v>
+      </c>
+      <c r="E57" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>128</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>83</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>76</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>190</v>
+      </c>
+      <c r="E61" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>46</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>52</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>94</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>171</v>
+      </c>
+      <c r="E65" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>140</v>
+      </c>
+      <c r="E66" t="n">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>74</v>
+      </c>
+      <c r="E67" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>58</v>
+      </c>
+      <c r="E68" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>160</v>
+      </c>
+      <c r="E69" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>38</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>46</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>99</v>
+      </c>
+      <c r="E72" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>172</v>
+      </c>
+      <c r="E73" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>147</v>
+      </c>
+      <c r="E74" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>86</v>
+      </c>
+      <c r="E75" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>67</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>210</v>
+      </c>
+      <c r="E77" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>42</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>43</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>93</v>
+      </c>
+      <c r="E80" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>177</v>
+      </c>
+      <c r="E81" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>126</v>
+      </c>
+      <c r="E82" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>79</v>
+      </c>
+      <c r="E83" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>76</v>
+      </c>
+      <c r="E84" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
         <v>203</v>
       </c>
-      <c r="E49">
-        <v>20.8</v>
+      <c r="E85" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>40</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>49</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>90</v>
+      </c>
+      <c r="E88" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>191</v>
+      </c>
+      <c r="E89" t="n">
+        <v>19.8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/t13.2.xlsx
+++ b/Data/t13.2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,7 +387,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="D2">
-        <v>152</v>
+        <v>10198</v>
       </c>
       <c r="E2">
-        <v>16.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -424,16 +424,16 @@
         </is>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>13119</v>
       </c>
       <c r="E3">
-        <v>10.6</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -447,16 +447,16 @@
         </is>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>8295</v>
       </c>
       <c r="E4">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="D5">
-        <v>185</v>
+        <v>17781</v>
       </c>
       <c r="E5">
-        <v>20.3</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>4256</v>
       </c>
       <c r="E6">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>4230</v>
       </c>
       <c r="E7">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="D8">
-        <v>71</v>
+        <v>9811</v>
       </c>
       <c r="E8">
-        <v>7.8</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="D9">
-        <v>156</v>
+        <v>14527</v>
       </c>
       <c r="E9">
-        <v>17.1</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="D10">
-        <v>163</v>
+        <v>9169</v>
       </c>
       <c r="E10">
-        <v>17.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="D11">
-        <v>88</v>
+        <v>12581</v>
       </c>
       <c r="E11">
-        <v>9.699999999999999</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="D12">
-        <v>81</v>
+        <v>8098</v>
       </c>
       <c r="E12">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -654,16 +654,16 @@
         </is>
       </c>
       <c r="D13">
-        <v>187</v>
+        <v>17936</v>
       </c>
       <c r="E13">
-        <v>20.6</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -677,16 +677,16 @@
         </is>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>4539</v>
       </c>
       <c r="E14">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>4603</v>
       </c>
       <c r="E15">
-        <v>4.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>9637</v>
       </c>
       <c r="E16">
-        <v>6.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -746,16 +746,16 @@
         </is>
       </c>
       <c r="D17">
-        <v>156</v>
+        <v>15384</v>
       </c>
       <c r="E17">
-        <v>17.2</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="D18">
-        <v>138</v>
+        <v>8339</v>
       </c>
       <c r="E18">
-        <v>15.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -792,16 +792,16 @@
         </is>
       </c>
       <c r="D19">
-        <v>80</v>
+        <v>12136</v>
       </c>
       <c r="E19">
-        <v>8.9</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>7105</v>
       </c>
       <c r="E20">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -838,16 +838,16 @@
         </is>
       </c>
       <c r="D21">
-        <v>193</v>
+        <v>18078</v>
       </c>
       <c r="E21">
-        <v>21.3</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>4592</v>
       </c>
       <c r="E22">
-        <v>4.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -884,16 +884,16 @@
         </is>
       </c>
       <c r="D23">
-        <v>45</v>
+        <v>5273</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -907,16 +907,16 @@
         </is>
       </c>
       <c r="D24">
-        <v>77</v>
+        <v>10230</v>
       </c>
       <c r="E24">
-        <v>8.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -930,16 +930,16 @@
         </is>
       </c>
       <c r="D25">
-        <v>153</v>
+        <v>15498</v>
       </c>
       <c r="E25">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="D26">
-        <v>128</v>
+        <v>8324</v>
       </c>
       <c r="E26">
-        <v>13.4</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="D27">
-        <v>83</v>
+        <v>12477</v>
       </c>
       <c r="E27">
-        <v>8.699999999999999</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="D28">
-        <v>76</v>
+        <v>7006</v>
       </c>
       <c r="E28">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1022,16 +1022,16 @@
         </is>
       </c>
       <c r="D29">
-        <v>190</v>
+        <v>18422</v>
       </c>
       <c r="E29">
-        <v>19.9</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1045,16 +1045,16 @@
         </is>
       </c>
       <c r="D30">
-        <v>46</v>
+        <v>4986</v>
       </c>
       <c r="E30">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1068,16 +1068,16 @@
         </is>
       </c>
       <c r="D31">
-        <v>52</v>
+        <v>5753</v>
       </c>
       <c r="E31">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1091,16 +1091,16 @@
         </is>
       </c>
       <c r="D32">
-        <v>94</v>
+        <v>10749</v>
       </c>
       <c r="E32">
-        <v>9.800000000000001</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1114,16 +1114,16 @@
         </is>
       </c>
       <c r="D33">
-        <v>171</v>
+        <v>16311</v>
       </c>
       <c r="E33">
-        <v>17.9</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1137,16 +1137,16 @@
         </is>
       </c>
       <c r="D34">
-        <v>147</v>
+        <v>8881</v>
       </c>
       <c r="E34">
-        <v>15.1</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1160,16 +1160,16 @@
         </is>
       </c>
       <c r="D35">
-        <v>86</v>
+        <v>12412</v>
       </c>
       <c r="E35">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1183,16 +1183,16 @@
         </is>
       </c>
       <c r="D36">
-        <v>67</v>
+        <v>7465</v>
       </c>
       <c r="E36">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1206,16 +1206,16 @@
         </is>
       </c>
       <c r="D37">
-        <v>210</v>
+        <v>18444</v>
       </c>
       <c r="E37">
-        <v>21.5</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1229,16 +1229,16 @@
         </is>
       </c>
       <c r="D38">
-        <v>42</v>
+        <v>4853</v>
       </c>
       <c r="E38">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1252,16 +1252,16 @@
         </is>
       </c>
       <c r="D39">
-        <v>43</v>
+        <v>5161</v>
       </c>
       <c r="E39">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1275,16 +1275,16 @@
         </is>
       </c>
       <c r="D40">
-        <v>93</v>
+        <v>11437</v>
       </c>
       <c r="E40">
-        <v>9.5</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="D41">
-        <v>177</v>
+        <v>16387</v>
       </c>
       <c r="E41">
-        <v>18.2</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1321,16 +1321,16 @@
         </is>
       </c>
       <c r="D42">
-        <v>120</v>
+        <v>7986</v>
       </c>
       <c r="E42">
-        <v>12.6</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1344,16 +1344,16 @@
         </is>
       </c>
       <c r="D43">
-        <v>72</v>
+        <v>12958</v>
       </c>
       <c r="E43">
-        <v>7.6</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="D44">
-        <v>74</v>
+        <v>7439</v>
       </c>
       <c r="E44">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1390,16 +1390,16 @@
         </is>
       </c>
       <c r="D45">
-        <v>189</v>
+        <v>19123</v>
       </c>
       <c r="E45">
-        <v>19.8</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1413,16 +1413,16 @@
         </is>
       </c>
       <c r="D46">
-        <v>42</v>
+        <v>5697</v>
       </c>
       <c r="E46">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="D47">
-        <v>50</v>
+        <v>5516</v>
       </c>
       <c r="E47">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1459,16 +1459,16 @@
         </is>
       </c>
       <c r="D48">
-        <v>89</v>
+        <v>12580</v>
       </c>
       <c r="E48">
-        <v>9.300000000000001</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1482,9 +1482,2217 @@
         </is>
       </c>
       <c r="D49">
+        <v>18041</v>
+      </c>
+      <c r="E49">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>4078</v>
+      </c>
+      <c r="E50">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>2188</v>
+      </c>
+      <c r="E51">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>2137</v>
+      </c>
+      <c r="E52">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>4560</v>
+      </c>
+      <c r="E53">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>846</v>
+      </c>
+      <c r="E54">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>1084</v>
+      </c>
+      <c r="E55">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>1577</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>3590</v>
+      </c>
+      <c r="E57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>3444</v>
+      </c>
+      <c r="E58">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>2114</v>
+      </c>
+      <c r="E59">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>2084</v>
+      </c>
+      <c r="E60">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>4657</v>
+      </c>
+      <c r="E61">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>945</v>
+      </c>
+      <c r="E62">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>1183</v>
+      </c>
+      <c r="E63">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>1607</v>
+      </c>
+      <c r="E64">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>3807</v>
+      </c>
+      <c r="E65">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>2775</v>
+      </c>
+      <c r="E66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>2015</v>
+      </c>
+      <c r="E67">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>1732</v>
+      </c>
+      <c r="E68">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>4563</v>
+      </c>
+      <c r="E69">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>945</v>
+      </c>
+      <c r="E70">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>1270</v>
+      </c>
+      <c r="E71">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>1641</v>
+      </c>
+      <c r="E72">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>3864</v>
+      </c>
+      <c r="E73">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>2699</v>
+      </c>
+      <c r="E74">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>2084</v>
+      </c>
+      <c r="E75">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>1667</v>
+      </c>
+      <c r="E76">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>4565</v>
+      </c>
+      <c r="E77">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>1001</v>
+      </c>
+      <c r="E78">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>1387</v>
+      </c>
+      <c r="E79">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>1728</v>
+      </c>
+      <c r="E80">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>3987</v>
+      </c>
+      <c r="E81">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>2956</v>
+      </c>
+      <c r="E82">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>1981</v>
+      </c>
+      <c r="E83">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>1767</v>
+      </c>
+      <c r="E84">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>4468</v>
+      </c>
+      <c r="E85">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>901</v>
+      </c>
+      <c r="E86">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>1353</v>
+      </c>
+      <c r="E87">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>1790</v>
+      </c>
+      <c r="E88">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>3860</v>
+      </c>
+      <c r="E89">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>2642</v>
+      </c>
+      <c r="E90">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>2006</v>
+      </c>
+      <c r="E91">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>1768</v>
+      </c>
+      <c r="E92">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>4671</v>
+      </c>
+      <c r="E93">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>1044</v>
+      </c>
+      <c r="E94">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>1265</v>
+      </c>
+      <c r="E95">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>2045</v>
+      </c>
+      <c r="E96">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>4507</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>152</v>
+      </c>
+      <c r="E98">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D99">
+        <v>97</v>
+      </c>
+      <c r="E99">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>79</v>
+      </c>
+      <c r="E100">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>185</v>
+      </c>
+      <c r="E101">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>44</v>
+      </c>
+      <c r="E102">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>33</v>
+      </c>
+      <c r="E103">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>71</v>
+      </c>
+      <c r="E104">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>156</v>
+      </c>
+      <c r="E105">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>163</v>
+      </c>
+      <c r="E106">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>88</v>
+      </c>
+      <c r="E107">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>81</v>
+      </c>
+      <c r="E108">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>187</v>
+      </c>
+      <c r="E109">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>41</v>
+      </c>
+      <c r="E110">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>37</v>
+      </c>
+      <c r="E111">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>63</v>
+      </c>
+      <c r="E112">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>156</v>
+      </c>
+      <c r="E113">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>138</v>
+      </c>
+      <c r="E114">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>80</v>
+      </c>
+      <c r="E115">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D116">
+        <v>70</v>
+      </c>
+      <c r="E116">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>193</v>
+      </c>
+      <c r="E117">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>39</v>
+      </c>
+      <c r="E118">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>45</v>
+      </c>
+      <c r="E119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D120">
+        <v>77</v>
+      </c>
+      <c r="E120">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>153</v>
+      </c>
+      <c r="E121">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>128</v>
+      </c>
+      <c r="E122">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D123">
+        <v>83</v>
+      </c>
+      <c r="E123">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>76</v>
+      </c>
+      <c r="E124">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>190</v>
+      </c>
+      <c r="E125">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>46</v>
+      </c>
+      <c r="E126">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D127">
+        <v>52</v>
+      </c>
+      <c r="E127">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D128">
+        <v>94</v>
+      </c>
+      <c r="E128">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D129">
+        <v>171</v>
+      </c>
+      <c r="E129">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D130">
+        <v>147</v>
+      </c>
+      <c r="E130">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D131">
+        <v>86</v>
+      </c>
+      <c r="E131">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D132">
+        <v>67</v>
+      </c>
+      <c r="E132">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D133">
+        <v>210</v>
+      </c>
+      <c r="E133">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D134">
+        <v>42</v>
+      </c>
+      <c r="E134">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D135">
+        <v>43</v>
+      </c>
+      <c r="E135">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D136">
+        <v>93</v>
+      </c>
+      <c r="E136">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D137">
+        <v>177</v>
+      </c>
+      <c r="E137">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D138">
+        <v>120</v>
+      </c>
+      <c r="E138">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D139">
+        <v>72</v>
+      </c>
+      <c r="E139">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D140">
+        <v>74</v>
+      </c>
+      <c r="E140">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D141">
+        <v>189</v>
+      </c>
+      <c r="E141">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D142">
+        <v>42</v>
+      </c>
+      <c r="E142">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D143">
+        <v>50</v>
+      </c>
+      <c r="E143">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D144">
+        <v>89</v>
+      </c>
+      <c r="E144">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D145">
         <v>203</v>
       </c>
-      <c r="E49">
+      <c r="E145">
         <v>21.3</v>
       </c>
     </row>

--- a/Data/t13.2.xlsx
+++ b/Data/t13.2.xlsx
@@ -397,14 +397,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D2">
-        <v>10198</v>
+        <v>9510</v>
       </c>
       <c r="E2">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="3">
@@ -420,14 +420,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D3">
-        <v>13119</v>
+        <v>13218</v>
       </c>
       <c r="E3">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -443,11 +443,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D4">
-        <v>8295</v>
+        <v>8215</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -466,14 +466,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D5">
-        <v>17781</v>
+        <v>17712</v>
       </c>
       <c r="E5">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="6">
@@ -489,11 +489,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D6">
-        <v>4256</v>
+        <v>4199</v>
       </c>
       <c r="E6">
         <v>4.6</v>
@@ -512,14 +512,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D7">
-        <v>4230</v>
+        <v>4281</v>
       </c>
       <c r="E7">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="8">
@@ -535,14 +535,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D8">
-        <v>9811</v>
+        <v>9888</v>
       </c>
       <c r="E8">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="9">
@@ -558,14 +558,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D9">
-        <v>14527</v>
+        <v>14506</v>
       </c>
       <c r="E9">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="10">
@@ -581,14 +581,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D10">
-        <v>9169</v>
+        <v>9317</v>
       </c>
       <c r="E10">
-        <v>9.9</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="11">
@@ -604,14 +604,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D11">
-        <v>12581</v>
+        <v>11921</v>
       </c>
       <c r="E11">
-        <v>13.6</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="12">
@@ -627,14 +627,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D12">
-        <v>8098</v>
+        <v>7704</v>
       </c>
       <c r="E12">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="13">
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D13">
-        <v>17936</v>
+        <v>17662</v>
       </c>
       <c r="E13">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="14">
@@ -673,14 +673,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D14">
-        <v>4539</v>
+        <v>4510</v>
       </c>
       <c r="E14">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -696,11 +696,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D15">
-        <v>4603</v>
+        <v>4524</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -719,14 +719,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D16">
-        <v>9637</v>
+        <v>9729</v>
       </c>
       <c r="E16">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="17">
@@ -742,14 +742,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D17">
-        <v>15384</v>
+        <v>15040</v>
       </c>
       <c r="E17">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="18">
@@ -765,14 +765,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D18">
-        <v>8339</v>
+        <v>8381</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -788,14 +788,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D19">
-        <v>12136</v>
+        <v>11799</v>
       </c>
       <c r="E19">
-        <v>13.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -811,14 +811,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D20">
-        <v>7105</v>
+        <v>6704</v>
       </c>
       <c r="E20">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="21">
@@ -834,14 +834,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D21">
-        <v>18078</v>
+        <v>17740</v>
       </c>
       <c r="E21">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="22">
@@ -857,14 +857,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D22">
-        <v>4592</v>
+        <v>4653</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="23">
@@ -880,14 +880,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D23">
-        <v>5273</v>
+        <v>5313</v>
       </c>
       <c r="E23">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="24">
@@ -903,14 +903,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D24">
-        <v>10230</v>
+        <v>10188</v>
       </c>
       <c r="E24">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="25">
@@ -926,11 +926,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D25">
-        <v>15498</v>
+        <v>15271</v>
       </c>
       <c r="E25">
         <v>16.8</v>
@@ -949,14 +949,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D26">
-        <v>8324</v>
+        <v>8232</v>
       </c>
       <c r="E26">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -972,11 +972,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D27">
-        <v>12477</v>
+        <v>12182</v>
       </c>
       <c r="E27">
         <v>13.1</v>
@@ -995,14 +995,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D28">
-        <v>7006</v>
+        <v>6560</v>
       </c>
       <c r="E28">
-        <v>7.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1018,14 +1018,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D29">
-        <v>18422</v>
+        <v>17792</v>
       </c>
       <c r="E29">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="30">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D30">
-        <v>4986</v>
+        <v>4955</v>
       </c>
       <c r="E30">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="31">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D31">
-        <v>5753</v>
+        <v>5429</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="32">
@@ -1087,14 +1087,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D32">
-        <v>10749</v>
+        <v>10804</v>
       </c>
       <c r="E32">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="33">
@@ -1110,14 +1110,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D33">
-        <v>16311</v>
+        <v>16280</v>
       </c>
       <c r="E33">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="34">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D34">
-        <v>8881</v>
+        <v>8743</v>
       </c>
       <c r="E34">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1156,14 +1156,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D35">
-        <v>12412</v>
+        <v>12322</v>
       </c>
       <c r="E35">
-        <v>13</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="36">
@@ -1179,14 +1179,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D36">
-        <v>7465</v>
+        <v>7213</v>
       </c>
       <c r="E36">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="37">
@@ -1202,14 +1202,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D37">
-        <v>18444</v>
+        <v>18339</v>
       </c>
       <c r="E37">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="38">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D38">
-        <v>4853</v>
+        <v>4977</v>
       </c>
       <c r="E38">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="39">
@@ -1248,14 +1248,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D39">
-        <v>5161</v>
+        <v>5303</v>
       </c>
       <c r="E39">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="40">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D40">
-        <v>11437</v>
+        <v>11342</v>
       </c>
       <c r="E40">
         <v>11.9</v>
@@ -1294,14 +1294,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D41">
-        <v>16387</v>
+        <v>16356</v>
       </c>
       <c r="E41">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="42">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D42">
-        <v>7986</v>
+        <v>7998</v>
       </c>
       <c r="E42">
-        <v>7.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D43">
-        <v>12958</v>
+        <v>12897</v>
       </c>
       <c r="E43">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="44">
@@ -1363,11 +1363,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D44">
-        <v>7439</v>
+        <v>7367</v>
       </c>
       <c r="E44">
         <v>7.4</v>
@@ -1386,11 +1386,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D45">
-        <v>19123</v>
+        <v>18983</v>
       </c>
       <c r="E45">
         <v>18.9</v>
@@ -1409,14 +1409,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D46">
-        <v>5697</v>
+        <v>5694</v>
       </c>
       <c r="E46">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="47">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D47">
-        <v>5516</v>
+        <v>5487</v>
       </c>
       <c r="E47">
         <v>5.5</v>
@@ -1455,14 +1455,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D48">
-        <v>12580</v>
+        <v>12676</v>
       </c>
       <c r="E48">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="49">
@@ -1478,14 +1478,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D49">
-        <v>18041</v>
+        <v>17721</v>
       </c>
       <c r="E49">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="50">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D50">
-        <v>4078</v>
+        <v>3828</v>
       </c>
       <c r="E50">
-        <v>18.2</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="51">
@@ -1524,14 +1524,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D51">
-        <v>2188</v>
+        <v>2205</v>
       </c>
       <c r="E51">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="52">
@@ -1547,11 +1547,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D52">
-        <v>2137</v>
+        <v>2115</v>
       </c>
       <c r="E52">
         <v>9.5</v>
@@ -1570,14 +1570,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D53">
-        <v>4560</v>
+        <v>4590</v>
       </c>
       <c r="E53">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="54">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D54">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="E54">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="55">
@@ -1616,14 +1616,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D55">
-        <v>1084</v>
+        <v>1093</v>
       </c>
       <c r="E55">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="56">
@@ -1639,14 +1639,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D56">
-        <v>1577</v>
+        <v>1620</v>
       </c>
       <c r="E56">
-        <v>7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="57">
@@ -1662,11 +1662,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D57">
-        <v>3590</v>
+        <v>3558</v>
       </c>
       <c r="E57">
         <v>16</v>
@@ -1685,14 +1685,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D58">
-        <v>3444</v>
+        <v>3507</v>
       </c>
       <c r="E58">
-        <v>15.4</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="59">
@@ -1708,14 +1708,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D59">
-        <v>2114</v>
+        <v>1985</v>
       </c>
       <c r="E59">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -1731,14 +1731,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D60">
-        <v>2084</v>
+        <v>1938</v>
       </c>
       <c r="E60">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D61">
-        <v>4657</v>
+        <v>4561</v>
       </c>
       <c r="E61">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="62">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D62">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="E62">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="63">
@@ -1800,14 +1800,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D63">
-        <v>1183</v>
+        <v>1129</v>
       </c>
       <c r="E63">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="64">
@@ -1823,14 +1823,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D64">
-        <v>1607</v>
+        <v>1592</v>
       </c>
       <c r="E64">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="65">
@@ -1846,14 +1846,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D65">
-        <v>3807</v>
+        <v>3608</v>
       </c>
       <c r="E65">
-        <v>17.1</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="66">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D66">
-        <v>2775</v>
+        <v>2783</v>
       </c>
       <c r="E66">
-        <v>13</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="67">
@@ -1892,14 +1892,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D67">
-        <v>2015</v>
+        <v>1905</v>
       </c>
       <c r="E67">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -1915,14 +1915,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D68">
-        <v>1732</v>
+        <v>1575</v>
       </c>
       <c r="E68">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="69">
@@ -1938,11 +1938,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D69">
-        <v>4563</v>
+        <v>4453</v>
       </c>
       <c r="E69">
         <v>21.4</v>
@@ -1961,11 +1961,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D70">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="E70">
         <v>4.4</v>
@@ -1984,14 +1984,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D71">
-        <v>1270</v>
+        <v>1309</v>
       </c>
       <c r="E71">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="72">
@@ -2007,14 +2007,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D72">
-        <v>1641</v>
+        <v>1621</v>
       </c>
       <c r="E72">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="73">
@@ -2030,11 +2030,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D73">
-        <v>3864</v>
+        <v>3770</v>
       </c>
       <c r="E73">
         <v>18.1</v>
@@ -2053,14 +2053,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D74">
-        <v>2699</v>
+        <v>2637</v>
       </c>
       <c r="E74">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="75">
@@ -2076,14 +2076,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D75">
-        <v>2084</v>
+        <v>1981</v>
       </c>
       <c r="E75">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="76">
@@ -2099,14 +2099,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D76">
-        <v>1667</v>
+        <v>1531</v>
       </c>
       <c r="E76">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="77">
@@ -2122,11 +2122,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D77">
-        <v>4565</v>
+        <v>4425</v>
       </c>
       <c r="E77">
         <v>21</v>
@@ -2145,14 +2145,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D78">
-        <v>1001</v>
+        <v>945</v>
       </c>
       <c r="E78">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="79">
@@ -2168,14 +2168,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D79">
-        <v>1387</v>
+        <v>1335</v>
       </c>
       <c r="E79">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="80">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D80">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="E80">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -2214,14 +2214,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D81">
-        <v>3987</v>
+        <v>3999</v>
       </c>
       <c r="E81">
-        <v>18.3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D82">
-        <v>2956</v>
+        <v>2908</v>
       </c>
       <c r="E82">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="83">
@@ -2260,14 +2260,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D83">
-        <v>1981</v>
+        <v>1937</v>
       </c>
       <c r="E83">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="84">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D84">
-        <v>1767</v>
+        <v>1666</v>
       </c>
       <c r="E84">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="85">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D85">
-        <v>4468</v>
+        <v>4491</v>
       </c>
       <c r="E85">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="86">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D86">
-        <v>901</v>
+        <v>871</v>
       </c>
       <c r="E86">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="87">
@@ -2352,14 +2352,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D87">
-        <v>1353</v>
+        <v>1325</v>
       </c>
       <c r="E87">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="88">
@@ -2375,14 +2375,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D88">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="E88">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="89">
@@ -2398,14 +2398,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D89">
-        <v>3860</v>
+        <v>3876</v>
       </c>
       <c r="E89">
-        <v>18</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="90">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D90">
-        <v>2642</v>
+        <v>2744</v>
       </c>
       <c r="E90">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="91">
@@ -2444,11 +2444,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D91">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="E91">
         <v>8.9</v>
@@ -2467,11 +2467,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D92">
-        <v>1768</v>
+        <v>1737</v>
       </c>
       <c r="E92">
         <v>7.8</v>
@@ -2490,14 +2490,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D93">
-        <v>4671</v>
+        <v>4536</v>
       </c>
       <c r="E93">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="94">
@@ -2513,11 +2513,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D94">
-        <v>1044</v>
+        <v>1020</v>
       </c>
       <c r="E94">
         <v>4.6</v>
@@ -2536,14 +2536,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D95">
-        <v>1265</v>
+        <v>1272</v>
       </c>
       <c r="E95">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="96">
@@ -2559,14 +2559,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D96">
-        <v>2045</v>
+        <v>2012</v>
       </c>
       <c r="E96">
-        <v>9.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -2582,11 +2582,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D97">
-        <v>4507</v>
+        <v>4459</v>
       </c>
       <c r="E97">
         <v>20</v>
@@ -2605,14 +2605,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D98">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E98">
-        <v>16.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
@@ -2628,14 +2628,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D99">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E99">
-        <v>10.6</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="100">
@@ -2651,14 +2651,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D100">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E100">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="101">
@@ -2674,14 +2674,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D101">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E101">
-        <v>20.3</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="102">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D102">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E102">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="103">
@@ -2720,14 +2720,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D103">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E103">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="104">
@@ -2743,14 +2743,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D104">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E104">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="105">
@@ -2766,14 +2766,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D105">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E105">
-        <v>17.1</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="106">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D106">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E106">
-        <v>17.9</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="107">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D107">
@@ -2835,14 +2835,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D108">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E108">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="109">
@@ -2858,14 +2858,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D109">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E109">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="110">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D110">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E110">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="111">
@@ -2904,14 +2904,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D111">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E111">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="112">
@@ -2927,14 +2927,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D112">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E112">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="113">
@@ -2950,14 +2950,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D113">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E113">
-        <v>17.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D114">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E114">
-        <v>15.3</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="115">
@@ -2996,14 +2996,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D115">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E115">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="116">
@@ -3019,14 +3019,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D116">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E116">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -3042,14 +3042,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D117">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E117">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="118">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D118">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E118">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="119">
@@ -3088,14 +3088,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D119">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E119">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="120">
@@ -3111,14 +3111,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D120">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E120">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="121">
@@ -3134,14 +3134,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D121">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E121">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="122">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D122">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E122">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="123">
@@ -3180,14 +3180,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D123">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E123">
-        <v>8.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="124">
@@ -3203,14 +3203,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D124">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E124">
-        <v>7.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -3226,14 +3226,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D125">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E125">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="126">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D126">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E126">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
@@ -3272,14 +3272,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D127">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E127">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
@@ -3295,14 +3295,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D128">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E128">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="129">
@@ -3318,14 +3318,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D129">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E129">
-        <v>17.9</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="130">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D130">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E130">
-        <v>15.1</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="131">
@@ -3364,14 +3364,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D131">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E131">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="132">
@@ -3387,14 +3387,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D132">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E132">
-        <v>6.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
@@ -3410,14 +3410,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D133">
         <v>210</v>
       </c>
       <c r="E133">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="134">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D134">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E134">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="135">
@@ -3456,14 +3456,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D135">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E135">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="136">
@@ -3479,14 +3479,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D136">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E136">
-        <v>9.5</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="137">
@@ -3502,14 +3502,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D137">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E137">
-        <v>18.2</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="138">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D138">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E138">
-        <v>12.6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139">
@@ -3548,14 +3548,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D139">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E139">
-        <v>7.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
@@ -3571,14 +3571,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D140">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E140">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="141">
@@ -3594,14 +3594,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D141">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E141">
-        <v>19.8</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="142">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D142">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E142">
-        <v>4.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D143">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E143">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="144">
@@ -3663,14 +3663,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D144">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E144">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="145">
@@ -3686,14 +3686,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D145">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E145">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t13.2.xlsx
+++ b/Data/t13.2.xlsx
@@ -397,11 +397,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D2">
-        <v>9510</v>
+        <v>9617</v>
       </c>
       <c r="E2">
         <v>10.4</v>
@@ -420,11 +420,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D3">
-        <v>13218</v>
+        <v>13365</v>
       </c>
       <c r="E3">
         <v>14.5</v>
@@ -443,14 +443,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D4">
-        <v>8215</v>
+        <v>7963</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="5">
@@ -466,14 +466,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D5">
-        <v>17712</v>
+        <v>17603</v>
       </c>
       <c r="E5">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="6">
@@ -489,11 +489,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D6">
-        <v>4199</v>
+        <v>4277</v>
       </c>
       <c r="E6">
         <v>4.6</v>
@@ -512,14 +512,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D7">
-        <v>4281</v>
+        <v>4149</v>
       </c>
       <c r="E7">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
@@ -535,14 +535,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D8">
-        <v>9888</v>
+        <v>10312</v>
       </c>
       <c r="E8">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="9">
@@ -558,14 +558,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D9">
-        <v>14506</v>
+        <v>14824</v>
       </c>
       <c r="E9">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="10">
@@ -581,14 +581,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D10">
-        <v>9317</v>
+        <v>9230</v>
       </c>
       <c r="E10">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="11">
@@ -604,14 +604,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D11">
-        <v>11921</v>
+        <v>11824</v>
       </c>
       <c r="E11">
-        <v>13.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -627,14 +627,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D12">
-        <v>7704</v>
+        <v>7538</v>
       </c>
       <c r="E12">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D13">
-        <v>17662</v>
+        <v>17565</v>
       </c>
       <c r="E13">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="14">
@@ -673,11 +673,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D14">
-        <v>4510</v>
+        <v>4518</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -696,11 +696,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D15">
-        <v>4524</v>
+        <v>4531</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -719,11 +719,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D16">
-        <v>9729</v>
+        <v>9738</v>
       </c>
       <c r="E16">
         <v>10.7</v>
@@ -742,14 +742,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D17">
-        <v>15040</v>
+        <v>15422</v>
       </c>
       <c r="E17">
-        <v>16.6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -765,11 +765,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D18">
-        <v>8381</v>
+        <v>8391</v>
       </c>
       <c r="E18">
         <v>9.199999999999999</v>
@@ -788,14 +788,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D19">
-        <v>11799</v>
+        <v>12083</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="20">
@@ -811,14 +811,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D20">
-        <v>6704</v>
+        <v>6711</v>
       </c>
       <c r="E20">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="21">
@@ -834,14 +834,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D21">
-        <v>17740</v>
+        <v>17636</v>
       </c>
       <c r="E21">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="22">
@@ -857,11 +857,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D22">
-        <v>4653</v>
+        <v>4703</v>
       </c>
       <c r="E22">
         <v>5.1</v>
@@ -880,14 +880,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D23">
-        <v>5313</v>
+        <v>5242</v>
       </c>
       <c r="E23">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="24">
@@ -903,14 +903,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D24">
-        <v>10188</v>
+        <v>10017</v>
       </c>
       <c r="E24">
-        <v>11.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -926,14 +926,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D25">
-        <v>15271</v>
+        <v>15813</v>
       </c>
       <c r="E25">
-        <v>16.8</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="26">
@@ -949,14 +949,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D26">
-        <v>8232</v>
+        <v>7951</v>
       </c>
       <c r="E26">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="27">
@@ -972,14 +972,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D27">
-        <v>12182</v>
+        <v>11125</v>
       </c>
       <c r="E27">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="28">
@@ -995,14 +995,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D28">
-        <v>6560</v>
+        <v>5510</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="29">
@@ -1018,14 +1018,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D29">
-        <v>17792</v>
+        <v>15649</v>
       </c>
       <c r="E29">
-        <v>19.1</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="30">
@@ -1041,11 +1041,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D30">
-        <v>4955</v>
+        <v>4449</v>
       </c>
       <c r="E30">
         <v>5.3</v>
@@ -1064,14 +1064,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D31">
-        <v>5429</v>
+        <v>4064</v>
       </c>
       <c r="E31">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="32">
@@ -1087,14 +1087,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D32">
-        <v>10804</v>
+        <v>10180</v>
       </c>
       <c r="E32">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="33">
@@ -1110,14 +1110,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D33">
-        <v>16280</v>
+        <v>16378</v>
       </c>
       <c r="E33">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="34">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D34">
-        <v>8743</v>
+        <v>8781</v>
       </c>
       <c r="E34">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="35">
@@ -1156,11 +1156,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D35">
-        <v>12322</v>
+        <v>12654</v>
       </c>
       <c r="E35">
         <v>12.9</v>
@@ -1179,11 +1179,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D36">
-        <v>7213</v>
+        <v>7487</v>
       </c>
       <c r="E36">
         <v>7.6</v>
@@ -1202,14 +1202,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D37">
-        <v>18339</v>
+        <v>18956</v>
       </c>
       <c r="E37">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="38">
@@ -1225,11 +1225,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D38">
-        <v>4977</v>
+        <v>5115</v>
       </c>
       <c r="E38">
         <v>5.2</v>
@@ -1248,14 +1248,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D39">
-        <v>5303</v>
+        <v>5441</v>
       </c>
       <c r="E39">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="40">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D40">
-        <v>11342</v>
+        <v>11678</v>
       </c>
       <c r="E40">
         <v>11.9</v>
@@ -1294,14 +1294,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D41">
-        <v>16356</v>
+        <v>17094</v>
       </c>
       <c r="E41">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="42">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D42">
         <v>7998</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="43">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D43">
-        <v>12897</v>
+        <v>12871</v>
       </c>
       <c r="E43">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="44">
@@ -1363,11 +1363,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D44">
-        <v>7367</v>
+        <v>7494</v>
       </c>
       <c r="E44">
         <v>7.4</v>
@@ -1386,11 +1386,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D45">
-        <v>18983</v>
+        <v>19266</v>
       </c>
       <c r="E45">
         <v>18.9</v>
@@ -1409,14 +1409,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D46">
-        <v>5694</v>
+        <v>5738</v>
       </c>
       <c r="E46">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="47">
@@ -1432,14 +1432,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D47">
-        <v>5487</v>
+        <v>5516</v>
       </c>
       <c r="E47">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="48">
@@ -1455,11 +1455,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D48">
-        <v>12676</v>
+        <v>12923</v>
       </c>
       <c r="E48">
         <v>12.7</v>
@@ -1478,14 +1478,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D49">
-        <v>17721</v>
+        <v>18573</v>
       </c>
       <c r="E49">
-        <v>17.7</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="50">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D50">
-        <v>3828</v>
+        <v>3866</v>
       </c>
       <c r="E50">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="51">
@@ -1524,14 +1524,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D51">
-        <v>2205</v>
+        <v>2146</v>
       </c>
       <c r="E51">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="52">
@@ -1547,14 +1547,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D52">
-        <v>2115</v>
+        <v>2103</v>
       </c>
       <c r="E52">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="53">
@@ -1570,14 +1570,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D53">
-        <v>4590</v>
+        <v>4544</v>
       </c>
       <c r="E53">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="54">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D54">
-        <v>829</v>
+        <v>883</v>
       </c>
       <c r="E54">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="55">
@@ -1616,14 +1616,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D55">
-        <v>1093</v>
+        <v>1046</v>
       </c>
       <c r="E55">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="56">
@@ -1639,14 +1639,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D56">
-        <v>1620</v>
+        <v>1739</v>
       </c>
       <c r="E56">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="57">
@@ -1662,14 +1662,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D57">
-        <v>3558</v>
+        <v>3698</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="58">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D58">
-        <v>3507</v>
+        <v>3396</v>
       </c>
       <c r="E58">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="59">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D59">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="E59">
         <v>9.199999999999999</v>
@@ -1731,14 +1731,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D60">
-        <v>1938</v>
+        <v>1845</v>
       </c>
       <c r="E60">
-        <v>9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="61">
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D61">
-        <v>4561</v>
+        <v>4509</v>
       </c>
       <c r="E61">
-        <v>21.1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D62">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E62">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="63">
@@ -1800,14 +1800,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D63">
-        <v>1129</v>
+        <v>1068</v>
       </c>
       <c r="E63">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -1823,11 +1823,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D64">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E64">
         <v>7.4</v>
@@ -1846,14 +1846,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D65">
-        <v>3608</v>
+        <v>3761</v>
       </c>
       <c r="E65">
-        <v>16.7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="66">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D66">
-        <v>2783</v>
+        <v>2759</v>
       </c>
       <c r="E66">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="67">
@@ -1892,14 +1892,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D67">
-        <v>1905</v>
+        <v>1993</v>
       </c>
       <c r="E67">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="68">
@@ -1915,14 +1915,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D68">
-        <v>1575</v>
+        <v>1525</v>
       </c>
       <c r="E68">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="69">
@@ -1938,14 +1938,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D69">
-        <v>4453</v>
+        <v>4367</v>
       </c>
       <c r="E69">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="70">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D70">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="E70">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="71">
@@ -1984,14 +1984,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D71">
-        <v>1309</v>
+        <v>1249</v>
       </c>
       <c r="E71">
-        <v>6.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -2007,14 +2007,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D72">
-        <v>1621</v>
+        <v>1638</v>
       </c>
       <c r="E72">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="73">
@@ -2030,14 +2030,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D73">
-        <v>3770</v>
+        <v>3927</v>
       </c>
       <c r="E73">
-        <v>18.1</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="74">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D74">
-        <v>2637</v>
+        <v>2382</v>
       </c>
       <c r="E74">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -2076,14 +2076,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D75">
-        <v>1981</v>
+        <v>1656</v>
       </c>
       <c r="E75">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="76">
@@ -2099,14 +2099,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D76">
-        <v>1531</v>
+        <v>1188</v>
       </c>
       <c r="E76">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="77">
@@ -2122,11 +2122,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D77">
-        <v>4425</v>
+        <v>3826</v>
       </c>
       <c r="E77">
         <v>21</v>
@@ -2145,11 +2145,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D78">
-        <v>945</v>
+        <v>813</v>
       </c>
       <c r="E78">
         <v>4.5</v>
@@ -2168,14 +2168,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D79">
-        <v>1335</v>
+        <v>982</v>
       </c>
       <c r="E79">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="80">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D80">
-        <v>1722</v>
+        <v>1584</v>
       </c>
       <c r="E80">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -2214,14 +2214,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D81">
-        <v>3999</v>
+        <v>4001</v>
       </c>
       <c r="E81">
-        <v>19</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="82">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D82">
-        <v>2908</v>
+        <v>2896</v>
       </c>
       <c r="E82">
-        <v>13.7</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="83">
@@ -2260,14 +2260,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D83">
-        <v>1937</v>
+        <v>2050</v>
       </c>
       <c r="E83">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D84">
-        <v>1666</v>
+        <v>1743</v>
       </c>
       <c r="E84">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="85">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D85">
-        <v>4491</v>
+        <v>4630</v>
       </c>
       <c r="E85">
-        <v>21.1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D86">
-        <v>871</v>
+        <v>927</v>
       </c>
       <c r="E86">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="87">
@@ -2352,14 +2352,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D87">
         <v>1325</v>
       </c>
       <c r="E87">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -2375,14 +2375,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D88">
-        <v>1798</v>
+        <v>1811</v>
       </c>
       <c r="E88">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="89">
@@ -2398,14 +2398,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D89">
-        <v>3876</v>
+        <v>4151</v>
       </c>
       <c r="E89">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="90">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D90">
-        <v>2744</v>
+        <v>2701</v>
       </c>
       <c r="E90">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="91">
@@ -2444,14 +2444,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D91">
-        <v>1993</v>
+        <v>1977</v>
       </c>
       <c r="E91">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -2467,14 +2467,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D92">
-        <v>1737</v>
+        <v>1840</v>
       </c>
       <c r="E92">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="93">
@@ -2490,14 +2490,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D93">
-        <v>4536</v>
+        <v>4587</v>
       </c>
       <c r="E93">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="94">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D94">
-        <v>1020</v>
+        <v>1037</v>
       </c>
       <c r="E94">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="95">
@@ -2536,11 +2536,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D95">
-        <v>1272</v>
+        <v>1292</v>
       </c>
       <c r="E95">
         <v>5.7</v>
@@ -2559,14 +2559,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D96">
-        <v>2012</v>
+        <v>2118</v>
       </c>
       <c r="E96">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -2582,14 +2582,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D97">
-        <v>4459</v>
+        <v>4735</v>
       </c>
       <c r="E97">
-        <v>20</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="98">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D98">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E98">
-        <v>16</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="99">
@@ -2628,11 +2628,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D99">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E99">
         <v>11.5</v>
@@ -2651,11 +2651,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D100">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E100">
         <v>8.9</v>
@@ -2674,11 +2674,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D101">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E101">
         <v>19.3</v>
@@ -2697,14 +2697,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D102">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E102">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="103">
@@ -2720,14 +2720,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D103">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E103">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -2743,14 +2743,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D104">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E104">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="105">
@@ -2766,14 +2766,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D105">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E105">
-        <v>17.8</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="106">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D106">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E106">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="107">
@@ -2812,14 +2812,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D107">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E107">
-        <v>9.699999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -2835,14 +2835,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D108">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E108">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="109">
@@ -2858,14 +2858,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D109">
         <v>185</v>
       </c>
       <c r="E109">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="110">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D110">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E110">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="111">
@@ -2904,14 +2904,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D111">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E111">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="112">
@@ -2927,14 +2927,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D112">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E112">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="113">
@@ -2950,14 +2950,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D113">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="E113">
-        <v>16</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="114">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D114">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E114">
-        <v>13.9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
@@ -2996,14 +2996,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D115">
         <v>79</v>
       </c>
       <c r="E115">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -3019,14 +3019,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D116">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E116">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="117">
@@ -3042,14 +3042,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D117">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E117">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="118">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D118">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D119">
@@ -3111,14 +3111,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D120">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E120">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="121">
@@ -3134,11 +3134,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D121">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E121">
         <v>16.8</v>
@@ -3157,14 +3157,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D122">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E122">
-        <v>13.2</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="123">
@@ -3180,14 +3180,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D123">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E123">
-        <v>9.800000000000001</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="124">
@@ -3203,14 +3203,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D124">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E124">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="125">
@@ -3226,14 +3226,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D125">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E125">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="126">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D126">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E126">
-        <v>5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="127">
@@ -3272,14 +3272,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D127">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E127">
-        <v>6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="128">
@@ -3295,14 +3295,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D128">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E128">
-        <v>10.5</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="129">
@@ -3318,14 +3318,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D129">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E129">
-        <v>17.6</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="130">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D130">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E130">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="131">
@@ -3364,14 +3364,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D131">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E131">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="132">
@@ -3387,14 +3387,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D132">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E132">
-        <v>8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="133">
@@ -3410,14 +3410,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D133">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E133">
-        <v>21.9</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="134">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D134">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E134">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -3456,14 +3456,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D135">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E135">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="136">
@@ -3479,14 +3479,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D136">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E136">
-        <v>10.7</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="137">
@@ -3502,14 +3502,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D137">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E137">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="138">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D138">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E138">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
@@ -3548,14 +3548,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D139">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E139">
-        <v>8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="140">
@@ -3571,14 +3571,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D140">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E140">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="141">
@@ -3594,14 +3594,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D141">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="E141">
-        <v>18.3</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="142">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D142">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E142">
-        <v>4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="143">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D143">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E143">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="144">
@@ -3663,14 +3663,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D144">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E144">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="145">
@@ -3686,14 +3686,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D145">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E145">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t13.2.xlsx
+++ b/Data/t13.2.xlsx
@@ -1,43 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,20 +350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -441,17 +365,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ano</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Atividade</t>
+          <t>Trimestre</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Valor</t>
+          <t>Pessoas</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -463,2212 +387,3316 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>153</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16.6</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>9434</v>
+      </c>
+      <c r="E2">
+        <v>10.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>Indústria geral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Indústria geral</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>109</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11.8</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>13620</v>
+      </c>
+      <c r="E3">
+        <v>14.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>Construção</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Construção</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>90</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.699999999999999</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>7753</v>
+      </c>
+      <c r="E4">
+        <v>8.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Comércio, reparação de veículos automotores e motocicletas</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>175</v>
-      </c>
-      <c r="E5" t="n">
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>17439</v>
+      </c>
+      <c r="E5">
         <v>18.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Transporte, armazenagem e correio</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>41</v>
-      </c>
-      <c r="E6" t="n">
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>4175</v>
+      </c>
+      <c r="E6">
         <v>4.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>Alojamento e alimentação</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Alojamento e alimentação</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>41</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.4</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>4224</v>
+      </c>
+      <c r="E7">
+        <v>4.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>69</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.5</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>10762</v>
+      </c>
+      <c r="E8">
+        <v>11.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>149</v>
-      </c>
-      <c r="E9" t="n">
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>14869</v>
+      </c>
+      <c r="E9">
         <v>16.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>152</v>
-      </c>
-      <c r="E10" t="n">
-        <v>16.6</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>8856</v>
+      </c>
+      <c r="E10">
+        <v>9.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>Indústria geral</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Indústria geral</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>97</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10.6</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>11746</v>
+      </c>
+      <c r="E11">
+        <v>13.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>Construção</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Construção</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>79</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.699999999999999</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>7254</v>
+      </c>
+      <c r="E12">
+        <v>8.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Comércio, reparação de veículos automotores e motocicletas</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>185</v>
-      </c>
-      <c r="E13" t="n">
-        <v>20.3</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>17252</v>
+      </c>
+      <c r="E13">
+        <v>19.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Transporte, armazenagem e correio</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>44</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.8</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>4517</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>Alojamento e alimentação</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Alojamento e alimentação</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>33</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.6</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>4716</v>
+      </c>
+      <c r="E15">
+        <v>5.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>71</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.8</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>9638</v>
+      </c>
+      <c r="E16">
+        <v>10.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>156</v>
-      </c>
-      <c r="E17" t="n">
-        <v>17.1</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>15478</v>
+      </c>
+      <c r="E17">
+        <v>17.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>158</v>
-      </c>
-      <c r="E18" t="n">
-        <v>16.8</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>8633</v>
+      </c>
+      <c r="E18">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>Indústria geral</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Indústria geral</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>99</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10.5</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>12075</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>Construção</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Construção</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>75</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.9</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>6941</v>
+      </c>
+      <c r="E20">
+        <v>7.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Comércio, reparação de veículos automotores e motocicletas</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>190</v>
-      </c>
-      <c r="E21" t="n">
-        <v>20.2</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>17801</v>
+      </c>
+      <c r="E21">
+        <v>19.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Transporte, armazenagem e correio</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>45</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4.8</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>4651</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>Alojamento e alimentação</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Alojamento e alimentação</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>41</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.3</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>5417</v>
+      </c>
+      <c r="E23">
+        <v>5.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>83</v>
-      </c>
-      <c r="E24" t="n">
-        <v>8.800000000000001</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>10282</v>
+      </c>
+      <c r="E24">
+        <v>11.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>163</v>
-      </c>
-      <c r="E25" t="n">
-        <v>17.4</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>16025</v>
+      </c>
+      <c r="E25">
+        <v>17.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>163</v>
-      </c>
-      <c r="E26" t="n">
-        <v>17.9</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>8244</v>
+      </c>
+      <c r="E26">
+        <v>9.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>Indústria geral</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Indústria geral</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>88</v>
-      </c>
-      <c r="E27" t="n">
-        <v>9.699999999999999</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>11018</v>
+      </c>
+      <c r="E27">
+        <v>13.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>Construção</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Construção</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>81</v>
-      </c>
-      <c r="E28" t="n">
-        <v>8.9</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>6012</v>
+      </c>
+      <c r="E28">
+        <v>7.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Comércio, reparação de veículos automotores e motocicletas</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>187</v>
-      </c>
-      <c r="E29" t="n">
-        <v>20.6</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>15737</v>
+      </c>
+      <c r="E29">
+        <v>18.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Transporte, armazenagem e correio</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>41</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4.5</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>4258</v>
+      </c>
+      <c r="E30">
+        <v>5.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>Alojamento e alimentação</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Alojamento e alimentação</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>37</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4.1</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>3879</v>
+      </c>
+      <c r="E31">
+        <v>4.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>63</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6.9</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>10023</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>156</v>
-      </c>
-      <c r="E33" t="n">
-        <v>17.2</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>15751</v>
+      </c>
+      <c r="E33">
+        <v>18.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>146</v>
-      </c>
-      <c r="E34" t="n">
-        <v>16.8</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>8722</v>
+      </c>
+      <c r="E34">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>Indústria geral</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Indústria geral</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>75</v>
-      </c>
-      <c r="E35" t="n">
-        <v>8.6</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>12688</v>
+      </c>
+      <c r="E35">
+        <v>12.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>Construção</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Construção</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>69</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>7416</v>
+      </c>
+      <c r="E36">
+        <v>7.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Comércio, reparação de veículos automotores e motocicletas</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>185</v>
-      </c>
-      <c r="E37" t="n">
-        <v>21.3</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>19231</v>
+      </c>
+      <c r="E37">
+        <v>19.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Transporte, armazenagem e correio</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>39</v>
-      </c>
-      <c r="E38" t="n">
-        <v>4.4</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>5234</v>
+      </c>
+      <c r="E38">
+        <v>5.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>Alojamento e alimentação</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Alojamento e alimentação</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>46</v>
-      </c>
-      <c r="E39" t="n">
-        <v>5.3</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>5325</v>
+      </c>
+      <c r="E39">
+        <v>5.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>66</v>
-      </c>
-      <c r="E40" t="n">
-        <v>7.6</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>11825</v>
+      </c>
+      <c r="E40">
+        <v>11.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>155</v>
-      </c>
-      <c r="E41" t="n">
-        <v>17.8</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>17409</v>
+      </c>
+      <c r="E41">
+        <v>17.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>138</v>
-      </c>
-      <c r="E42" t="n">
-        <v>15.3</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>7996</v>
+      </c>
+      <c r="E42">
+        <v>7.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>Indústria geral</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Indústria geral</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>80</v>
-      </c>
-      <c r="E43" t="n">
-        <v>8.9</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>13288</v>
+      </c>
+      <c r="E43">
+        <v>12.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>Construção</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Construção</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>70</v>
-      </c>
-      <c r="E44" t="n">
-        <v>7.8</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>7520</v>
+      </c>
+      <c r="E44">
+        <v>7.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Comércio, reparação de veículos automotores e motocicletas</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>193</v>
-      </c>
-      <c r="E45" t="n">
-        <v>21.3</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>19557</v>
+      </c>
+      <c r="E45">
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Transporte, armazenagem e correio</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>39</v>
-      </c>
-      <c r="E46" t="n">
-        <v>4.3</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>5710</v>
+      </c>
+      <c r="E46">
+        <v>5.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>Alojamento e alimentação</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Alojamento e alimentação</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>45</v>
-      </c>
-      <c r="E47" t="n">
-        <v>5</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>5532</v>
+      </c>
+      <c r="E47">
+        <v>5.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>77</v>
-      </c>
-      <c r="E48" t="n">
-        <v>8.6</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>13081</v>
+      </c>
+      <c r="E48">
+        <v>12.7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>153</v>
-      </c>
-      <c r="E49" t="n">
-        <v>16.9</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>18736</v>
+      </c>
+      <c r="E49">
+        <v>18.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>119</v>
-      </c>
-      <c r="E50" t="n">
-        <v>13.2</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>3778</v>
+      </c>
+      <c r="E50">
+        <v>16.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>Indústria geral</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Indústria geral</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>88</v>
-      </c>
-      <c r="E51" t="n">
-        <v>9.800000000000001</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>2226</v>
+      </c>
+      <c r="E51">
+        <v>9.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>Construção</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Construção</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>65</v>
-      </c>
-      <c r="E52" t="n">
-        <v>7.2</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>2016</v>
+      </c>
+      <c r="E52">
+        <v>8.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Comércio, reparação de veículos automotores e motocicletas</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>190</v>
-      </c>
-      <c r="E53" t="n">
-        <v>21</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>4538</v>
+      </c>
+      <c r="E53">
+        <v>20.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Transporte, armazenagem e correio</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>48</v>
-      </c>
-      <c r="E54" t="n">
-        <v>5.4</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>895</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>Alojamento e alimentação</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Alojamento e alimentação</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>45</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>1063</v>
+      </c>
+      <c r="E55">
+        <v>4.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>82</v>
-      </c>
-      <c r="E56" t="n">
-        <v>9</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>1839</v>
+      </c>
+      <c r="E56">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>158</v>
-      </c>
-      <c r="E57" t="n">
-        <v>17.4</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>3753</v>
+      </c>
+      <c r="E57">
+        <v>16.7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>128</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13.4</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>3136</v>
+      </c>
+      <c r="E58">
+        <v>14.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>Indústria geral</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Indústria geral</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>83</v>
-      </c>
-      <c r="E59" t="n">
-        <v>8.699999999999999</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>1952</v>
+      </c>
+      <c r="E59">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>Construção</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Construção</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>76</v>
-      </c>
-      <c r="E60" t="n">
-        <v>7.9</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>1811</v>
+      </c>
+      <c r="E60">
+        <v>8.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Comércio, reparação de veículos automotores e motocicletas</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>190</v>
-      </c>
-      <c r="E61" t="n">
-        <v>19.9</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>4372</v>
+      </c>
+      <c r="E61">
+        <v>20.8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Transporte, armazenagem e correio</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>46</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4.8</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>895</v>
+      </c>
+      <c r="E62">
+        <v>4.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>Alojamento e alimentação</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Alojamento e alimentação</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>52</v>
-      </c>
-      <c r="E63" t="n">
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>1166</v>
+      </c>
+      <c r="E63">
         <v>5.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>94</v>
-      </c>
-      <c r="E64" t="n">
-        <v>9.800000000000001</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>1565</v>
+      </c>
+      <c r="E64">
+        <v>7.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>171</v>
-      </c>
-      <c r="E65" t="n">
-        <v>17.9</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>3708</v>
+      </c>
+      <c r="E65">
+        <v>17.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>140</v>
-      </c>
-      <c r="E66" t="n">
-        <v>16.3</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>2825</v>
+      </c>
+      <c r="E66">
+        <v>13.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>Indústria geral</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Indústria geral</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>74</v>
-      </c>
-      <c r="E67" t="n">
-        <v>8.5</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>1977</v>
+      </c>
+      <c r="E67">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>Construção</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Construção</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>58</v>
-      </c>
-      <c r="E68" t="n">
-        <v>6.7</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>1614</v>
+      </c>
+      <c r="E68">
+        <v>7.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Comércio, reparação de veículos automotores e motocicletas</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>160</v>
-      </c>
-      <c r="E69" t="n">
-        <v>18.5</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>4492</v>
+      </c>
+      <c r="E69">
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Transporte, armazenagem e correio</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>38</v>
-      </c>
-      <c r="E70" t="n">
-        <v>4.4</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>974</v>
+      </c>
+      <c r="E70">
+        <v>4.6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>Alojamento e alimentação</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Alojamento e alimentação</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>46</v>
-      </c>
-      <c r="E71" t="n">
-        <v>5.4</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>1346</v>
+      </c>
+      <c r="E71">
+        <v>6.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>99</v>
-      </c>
-      <c r="E72" t="n">
-        <v>11.5</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>1664</v>
+      </c>
+      <c r="E72">
+        <v>7.8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>172</v>
-      </c>
-      <c r="E73" t="n">
-        <v>19.9</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>3973</v>
+      </c>
+      <c r="E73">
+        <v>18.6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>147</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15.1</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>2518</v>
+      </c>
+      <c r="E74">
+        <v>13.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>Indústria geral</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Indústria geral</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>86</v>
-      </c>
-      <c r="E75" t="n">
-        <v>8.800000000000001</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>1739</v>
+      </c>
+      <c r="E75">
+        <v>9.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>Construção</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Construção</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>67</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6.8</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>1376</v>
+      </c>
+      <c r="E76">
+        <v>7.6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Comércio, reparação de veículos automotores e motocicletas</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>210</v>
-      </c>
-      <c r="E77" t="n">
-        <v>21.5</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>3803</v>
+      </c>
+      <c r="E77">
+        <v>20.9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Transporte, armazenagem e correio</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>42</v>
-      </c>
-      <c r="E78" t="n">
-        <v>4.3</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>799</v>
+      </c>
+      <c r="E78">
+        <v>4.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>Alojamento e alimentação</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Alojamento e alimentação</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>43</v>
-      </c>
-      <c r="E79" t="n">
-        <v>4.4</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>953</v>
+      </c>
+      <c r="E79">
+        <v>5.2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>93</v>
-      </c>
-      <c r="E80" t="n">
-        <v>9.5</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>1523</v>
+      </c>
+      <c r="E80">
+        <v>8.4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>177</v>
-      </c>
-      <c r="E81" t="n">
-        <v>18.2</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>3646</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>126</v>
-      </c>
-      <c r="E82" t="n">
-        <v>13</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>2866</v>
+      </c>
+      <c r="E82">
+        <v>12.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>Indústria geral</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Indústria geral</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>79</v>
-      </c>
-      <c r="E83" t="n">
-        <v>8.199999999999999</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>2012</v>
+      </c>
+      <c r="E83">
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>Construção</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Construção</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>76</v>
-      </c>
-      <c r="E84" t="n">
-        <v>7.9</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>1719</v>
+      </c>
+      <c r="E84">
+        <v>7.7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Comércio, reparação de veículos automotores e motocicletas</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>203</v>
-      </c>
-      <c r="E85" t="n">
-        <v>21</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>4735</v>
+      </c>
+      <c r="E85">
+        <v>21.2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Transporte, armazenagem e correio</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>40</v>
-      </c>
-      <c r="E86" t="n">
-        <v>4.1</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>953</v>
+      </c>
+      <c r="E86">
+        <v>4.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>Alojamento e alimentação</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Alojamento e alimentação</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>49</v>
-      </c>
-      <c r="E87" t="n">
-        <v>5.1</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>1303</v>
+      </c>
+      <c r="E87">
+        <v>5.8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>90</v>
-      </c>
-      <c r="E88" t="n">
-        <v>9.4</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>1828</v>
+      </c>
+      <c r="E88">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>191</v>
-      </c>
-      <c r="E89" t="n">
-        <v>19.8</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>4369</v>
+      </c>
+      <c r="E89">
+        <v>19.5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>120</v>
-      </c>
-      <c r="E90" t="n">
-        <v>12.6</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>2772</v>
+      </c>
+      <c r="E90">
+        <v>11.8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>Indústria geral</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Indústria geral</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>72</v>
-      </c>
-      <c r="E91" t="n">
-        <v>7.6</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>2082</v>
+      </c>
+      <c r="E91">
+        <v>8.9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>Construção</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Construção</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>74</v>
-      </c>
-      <c r="E92" t="n">
-        <v>7.8</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>1864</v>
+      </c>
+      <c r="E92">
+        <v>8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Comércio, reparação de veículos automotores e motocicletas</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>189</v>
-      </c>
-      <c r="E93" t="n">
-        <v>19.8</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>4747</v>
+      </c>
+      <c r="E93">
+        <v>20.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>Transporte, armazenagem e correio</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Transporte, armazenagem e correio</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>42</v>
-      </c>
-      <c r="E94" t="n">
-        <v>4.4</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>1007</v>
+      </c>
+      <c r="E94">
+        <v>4.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>Alojamento e alimentação</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Alojamento e alimentação</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>50</v>
-      </c>
-      <c r="E95" t="n">
-        <v>5.3</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>1350</v>
+      </c>
+      <c r="E95">
+        <v>5.8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>89</v>
-      </c>
-      <c r="E96" t="n">
-        <v>9.300000000000001</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>2138</v>
+      </c>
+      <c r="E96">
+        <v>9.1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>4782</v>
+      </c>
+      <c r="E97">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>152</v>
+      </c>
+      <c r="E98">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D99">
+        <v>98</v>
+      </c>
+      <c r="E99">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>79</v>
+      </c>
+      <c r="E100">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>174</v>
+      </c>
+      <c r="E101">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>48</v>
+      </c>
+      <c r="E102">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>42</v>
+      </c>
+      <c r="E103">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>75</v>
+      </c>
+      <c r="E104">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
           <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>165</v>
+      </c>
+      <c r="E105">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>159</v>
+      </c>
+      <c r="E106">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>75</v>
+      </c>
+      <c r="E107">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>76</v>
+      </c>
+      <c r="E108">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>167</v>
+      </c>
+      <c r="E109">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>40</v>
+      </c>
+      <c r="E110">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>43</v>
+      </c>
+      <c r="E111">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>64</v>
+      </c>
+      <c r="E112">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>160</v>
+      </c>
+      <c r="E113">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>116</v>
+      </c>
+      <c r="E114">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>80</v>
+      </c>
+      <c r="E115">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D116">
+        <v>57</v>
+      </c>
+      <c r="E116">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>177</v>
+      </c>
+      <c r="E117">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>40</v>
+      </c>
+      <c r="E118">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>42</v>
+      </c>
+      <c r="E119">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D120">
+        <v>84</v>
+      </c>
+      <c r="E120">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>159</v>
+      </c>
+      <c r="E121">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>105</v>
+      </c>
+      <c r="E122">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D123">
+        <v>75</v>
+      </c>
+      <c r="E123">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>58</v>
+      </c>
+      <c r="E124">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>143</v>
+      </c>
+      <c r="E125">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>30</v>
+      </c>
+      <c r="E126">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D127">
+        <v>37</v>
+      </c>
+      <c r="E127">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D128">
+        <v>107</v>
+      </c>
+      <c r="E128">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D129">
+        <v>155</v>
+      </c>
+      <c r="E129">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D130">
+        <v>124</v>
+      </c>
+      <c r="E130">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D131">
+        <v>72</v>
+      </c>
+      <c r="E131">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D132">
+        <v>79</v>
+      </c>
+      <c r="E132">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D133">
+        <v>212</v>
+      </c>
+      <c r="E133">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D134">
+        <v>42</v>
+      </c>
+      <c r="E134">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D135">
+        <v>54</v>
+      </c>
+      <c r="E135">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D136">
+        <v>83</v>
+      </c>
+      <c r="E136">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D137">
+        <v>184</v>
+      </c>
+      <c r="E137">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D138">
+        <v>119</v>
+      </c>
+      <c r="E138">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D139">
+        <v>82</v>
+      </c>
+      <c r="E139">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D140">
+        <v>87</v>
+      </c>
+      <c r="E140">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D141">
+        <v>205</v>
+      </c>
+      <c r="E141">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D142">
+        <v>47</v>
+      </c>
+      <c r="E142">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D143">
+        <v>58</v>
+      </c>
+      <c r="E143">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D144">
+        <v>103</v>
+      </c>
+      <c r="E144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D145">
         <v>203</v>
       </c>
-      <c r="E97" t="n">
-        <v>21.3</v>
+      <c r="E145">
+        <v>19.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/t13.2.xlsx
+++ b/Data/t13.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -496,7 +496,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -542,7 +542,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -565,7 +565,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -588,7 +588,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -611,7 +611,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -634,7 +634,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -657,7 +657,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>31/10/2013</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -680,7 +680,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>31/10/2013</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>31/10/2013</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>31/10/2013</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -749,7 +749,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>31/10/2013</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>31/10/2013</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -795,7 +795,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>31/10/2013</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -818,7 +818,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>31/10/2013</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -841,7 +841,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>31/10/2014</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>31/10/2014</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -887,7 +887,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>31/10/2014</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>31/10/2014</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -933,7 +933,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>31/10/2014</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -956,7 +956,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>31/10/2014</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -979,7 +979,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>31/10/2014</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>31/10/2014</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>31/10/2015</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>31/10/2015</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>31/10/2015</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>31/10/2015</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>31/10/2015</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>31/10/2015</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>31/10/2015</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>31/10/2015</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>31/10/2016</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>31/10/2016</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>31/10/2016</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>31/10/2016</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>31/10/2016</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>31/10/2016</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>31/10/2016</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>31/10/2016</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>31/10/2018</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>31/10/2018</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>31/10/2018</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>31/10/2018</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>31/10/2018</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>31/10/2018</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>31/10/2018</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>31/10/2018</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>31/10/2019</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>31/10/2019</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>31/10/2019</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>31/10/2019</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>31/10/2019</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>31/10/2019</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>31/10/2019</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>31/10/2019</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>31/10/2020</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>31/10/2020</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>31/10/2020</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>31/10/2020</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>31/10/2020</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>31/10/2020</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>31/10/2020</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>31/10/2020</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>31/10/2021</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>31/10/2021</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>31/10/2021</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>31/10/2021</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>31/10/2021</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>31/10/2021</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>31/10/2021</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>31/10/2021</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>31/10/2022</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>31/10/2022</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>31/10/2022</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>31/10/2022</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>31/10/2022</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>31/10/2022</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>31/10/2022</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>31/10/2022</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2666,6 +2666,190 @@
       </c>
       <c r="E97" t="n">
         <v>21.3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>116</v>
+      </c>
+      <c r="E98" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>82</v>
+      </c>
+      <c r="E99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>83</v>
+      </c>
+      <c r="E100" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>200</v>
+      </c>
+      <c r="E101" t="n">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>50</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>58</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>102</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>209</v>
+      </c>
+      <c r="E105" t="n">
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t13.2.xlsx
+++ b/Data/t13.2.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3" t="n">
         <v>11.8</v>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" t="n">
         <v>9.699999999999999</v>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E5" t="n">
         <v>18.9</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
         <v>4.4</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E9" t="n">
         <v>16.1</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E10" t="n">
         <v>16.6</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" t="n">
         <v>10.6</v>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" t="n">
         <v>8.699999999999999</v>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E13" t="n">
         <v>20.3</v>
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="n">
         <v>4.8</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
         <v>3.6</v>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" t="n">
         <v>7.8</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E17" t="n">
         <v>17.1</v>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E18" t="n">
         <v>16.8</v>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" t="n">
         <v>10.5</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" t="n">
         <v>7.9</v>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E21" t="n">
         <v>20.2</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="n">
         <v>4.8</v>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="n">
         <v>4.3</v>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E24" t="n">
         <v>8.800000000000001</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E25" t="n">
         <v>17.4</v>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E26" t="n">
         <v>17.9</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E27" t="n">
         <v>9.699999999999999</v>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" t="n">
         <v>8.9</v>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E29" t="n">
         <v>20.6</v>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" t="n">
         <v>4.5</v>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E32" t="n">
         <v>6.9</v>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E33" t="n">
         <v>17.2</v>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E34" t="n">
         <v>16.8</v>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E35" t="n">
         <v>8.6</v>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E37" t="n">
         <v>21.3</v>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" t="n">
         <v>4.4</v>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" t="n">
         <v>5.3</v>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E40" t="n">
         <v>7.6</v>
@@ -1374,10 +1374,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E41" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="42">
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E42" t="n">
         <v>15.3</v>
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E43" t="n">
         <v>8.9</v>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E44" t="n">
         <v>7.8</v>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E45" t="n">
         <v>21.3</v>
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46" t="n">
         <v>4.3</v>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E48" t="n">
         <v>8.6</v>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E49" t="n">
         <v>16.9</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E50" t="n">
         <v>13.2</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E51" t="n">
         <v>9.800000000000001</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E52" t="n">
         <v>7.2</v>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E53" t="n">
         <v>21</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="55">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E57" t="n">
         <v>17.4</v>
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E58" t="n">
         <v>13.4</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E59" t="n">
         <v>8.699999999999999</v>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E60" t="n">
         <v>7.9</v>
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E61" t="n">
         <v>19.9</v>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E62" t="n">
         <v>4.8</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E63" t="n">
         <v>5.5</v>
@@ -1903,10 +1903,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E64" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E65" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="66">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E66" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="67">
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E67" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="68">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E68" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="69">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E69" t="n">
         <v>18.5</v>
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E70" t="n">
         <v>4.4</v>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E71" t="n">
         <v>5.4</v>
@@ -2087,10 +2087,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E72" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="73">
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E73" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="74">
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E74" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="75">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E75" t="n">
         <v>8.800000000000001</v>
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E76" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="77">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E77" t="n">
         <v>21.5</v>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E78" t="n">
         <v>4.3</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E79" t="n">
         <v>4.4</v>
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E80" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="81">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E81" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="83">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E83" t="n">
         <v>8.199999999999999</v>
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E84" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E85" t="n">
         <v>21</v>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E86" t="n">
         <v>4.1</v>
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E87" t="n">
         <v>5.1</v>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E88" t="n">
         <v>9.4</v>
@@ -2478,10 +2478,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E89" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="90">
@@ -2501,10 +2501,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E90" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="91">
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E91" t="n">
         <v>7.6</v>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E92" t="n">
         <v>7.8</v>
@@ -2570,10 +2570,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E93" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="94">
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E94" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="95">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E95" t="n">
         <v>5.3</v>
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E96" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="97">
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E97" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="98">
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E98" t="n">
         <v>11.4</v>
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -2731,10 +2731,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E100" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="101">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E101" t="n">
         <v>19.7</v>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E102" t="n">
         <v>4.9</v>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E103" t="n">
         <v>5.7</v>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E104" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="105">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E105" t="n">
         <v>20.5</v>
